--- a/resources/Food collected vs radius.xlsx
+++ b/resources/Food collected vs radius.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="10515" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>increment</t>
   </si>
@@ -41,12 +46,24 @@
   <si>
     <t>Variation</t>
   </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>20 s</t>
+  </si>
+  <si>
+    <t>standrd deviation</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +74,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -79,9 +112,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -106,7 +159,27 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="22">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -118,6 +191,706 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>1.09</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$7:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$7:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2121749304"/>
+        <c:axId val="2119672872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2121749304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2119672872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2119672872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121749304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$T$7:$T$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>6.01</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>6.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$U$7:$U$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>4.6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>4.4</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>5.99</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>4.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$V$7:$V$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00">
+                  <c:v>4.1</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2123313992"/>
+        <c:axId val="2123318568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2123313992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2123318568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2123318568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2123313992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,21 +1180,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:N26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +1202,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -437,7 +1210,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -445,7 +1218,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -461,7 +1234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -475,7 +1248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>1</v>
       </c>
@@ -488,8 +1261,20 @@
       <c r="H7" s="4">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>3</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>2</v>
       </c>
@@ -502,8 +1287,20 @@
       <c r="H8" s="4">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>3</v>
       </c>
@@ -516,8 +1313,20 @@
       <c r="H9" s="4">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M9" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>4</v>
       </c>
@@ -530,8 +1339,20 @@
       <c r="H10" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M10" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>5</v>
       </c>
@@ -544,8 +1365,20 @@
       <c r="H11" s="4">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M11" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>6</v>
       </c>
@@ -558,8 +1391,20 @@
       <c r="H12" s="5">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="M12" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>7</v>
       </c>
@@ -572,8 +1417,20 @@
       <c r="H13" s="5">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>7</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>8</v>
       </c>
@@ -586,8 +1443,20 @@
       <c r="H14" s="5">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>8</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>9</v>
       </c>
@@ -600,8 +1469,20 @@
       <c r="H15" s="5">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>9</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M15" s="5">
+        <v>3</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>10</v>
       </c>
@@ -614,8 +1495,20 @@
       <c r="H16" s="5">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="M16" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="N16" s="5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17">
         <v>11</v>
       </c>
@@ -628,8 +1521,20 @@
       <c r="H17" s="5">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M17" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
         <v>12</v>
       </c>
@@ -642,8 +1547,20 @@
       <c r="H18" s="5">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="M18" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="N18" s="5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
         <v>13</v>
       </c>
@@ -656,8 +1573,20 @@
       <c r="H19" s="5">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>13</v>
+      </c>
+      <c r="L19" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="M19" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="N19" s="5">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>14</v>
       </c>
@@ -670,8 +1599,20 @@
       <c r="H20" s="5">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>14</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M20" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="N20" s="5">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>15</v>
       </c>
@@ -684,8 +1625,20 @@
       <c r="H21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>15</v>
+      </c>
+      <c r="L21" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="M21" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>16</v>
       </c>
@@ -698,8 +1651,20 @@
       <c r="H22" s="5">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>16</v>
+      </c>
+      <c r="L22" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="M22" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>17</v>
       </c>
@@ -712,8 +1677,20 @@
       <c r="H23" s="5">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>17</v>
+      </c>
+      <c r="L23" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="M23" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>18</v>
       </c>
@@ -726,8 +1703,20 @@
       <c r="H24" s="5">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>18</v>
+      </c>
+      <c r="L24" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="M24" s="5">
+        <v>3</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>19</v>
       </c>
@@ -740,8 +1729,20 @@
       <c r="H25" s="5">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>19</v>
+      </c>
+      <c r="L25" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="M25" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="N25" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>20</v>
       </c>
@@ -754,12 +1755,24 @@
       <c r="H26" s="5">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="L26" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="M26" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="N26" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="E27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -782,7 +1795,7 @@
         <v>1.625</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -797,19 +1810,850 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="B5" s="1"/>
+      <c r="F5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="C7">
+        <f>(B7-$B$28)/$B$33</f>
+        <v>1.3225517407233272</v>
+      </c>
+      <c r="D7">
+        <f>IF(C7&lt;0,1 - NORMDIST(B7,$B$28,$B$33,C7),IF(C7&gt;0,NORMDIST(B7,$B$28,$B$33,C7)))</f>
+        <v>0.90700775398404354</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="U7" s="4">
+        <v>5</v>
+      </c>
+      <c r="V7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C26" si="0">(B8-$B$28)/$B$33</f>
+        <v>-0.465255568912326</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D26" si="1">IF(C8&lt;0,1 - NORMDIST(B8,$B$28,$B$33,C8),IF(C8&gt;0,NORMDIST(B8,$B$28,$B$33,C8)))</f>
+        <v>0.67912577560573673</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="U8" s="4">
+        <v>6</v>
+      </c>
+      <c r="V8" s="4">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.9184875106018784</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.97247538786937493</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S9">
+        <v>3</v>
+      </c>
+      <c r="T9" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="U9" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="V9" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-1.4868597458469852</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.93147407107833213</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="U10" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="V10" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.64148228943355456</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.73939530801166953</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11" s="4">
+        <v>7</v>
+      </c>
+      <c r="U11" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="V11" s="4">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7.01</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.64999565757467659</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.74215248670880263</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="I12" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12" s="5">
+        <v>7.01</v>
+      </c>
+      <c r="U12" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="V12" s="5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-0.20985452467866136</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.58310939205292933</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13" s="5">
+        <v>6</v>
+      </c>
+      <c r="U13" s="5">
+        <v>4.7</v>
+      </c>
+      <c r="V13" s="5">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-1.2314587016133207</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.89092432321370385</v>
+      </c>
+      <c r="F14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="S14">
+        <v>8</v>
+      </c>
+      <c r="T14" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="U14" s="5">
+        <v>5</v>
+      </c>
+      <c r="V14" s="5">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-0.89092397596843398</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.81351502162543377</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5.01</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="S15">
+        <v>9</v>
+      </c>
+      <c r="T15" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="U15" s="5">
+        <v>5.01</v>
+      </c>
+      <c r="V15" s="5">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.0671506964896624</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.8570481039274841</v>
+      </c>
+      <c r="F16" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I16" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="U16" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V16" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-1.4868597458469852</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.93147407107833213</v>
+      </c>
+      <c r="F17" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I17" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="S17">
+        <v>11</v>
+      </c>
+      <c r="T17" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="U17" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V17" s="5">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-0.89092397596843398</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.81351502162543377</v>
+      </c>
+      <c r="F18" s="5">
+        <v>5.99</v>
+      </c>
+      <c r="I18" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S18">
+        <v>12</v>
+      </c>
+      <c r="T18" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="U18" s="5">
+        <v>5.99</v>
+      </c>
+      <c r="V18" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-0.89092397596843398</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.81351502162543377</v>
+      </c>
+      <c r="F19" s="5">
+        <v>6</v>
+      </c>
+      <c r="I19" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="S19">
+        <v>13</v>
+      </c>
+      <c r="T19" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="U19" s="5">
+        <v>6</v>
+      </c>
+      <c r="V19" s="5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1.0671506964896624</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.8570481039274841</v>
+      </c>
+      <c r="F20" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="I20" s="5">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>14</v>
+      </c>
+      <c r="T20" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="U20" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="V20" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.30094756378866788</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.61827276005721032</v>
+      </c>
+      <c r="F21" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="I21" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="S21">
+        <v>15</v>
+      </c>
+      <c r="T21" s="5">
+        <v>6.6</v>
+      </c>
+      <c r="U21" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="V21" s="5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6.01</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-0.2013411565375394</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.57978408841680107</v>
+      </c>
+      <c r="F22" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="I22" s="5">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>16</v>
+      </c>
+      <c r="T22" s="5">
+        <v>6.01</v>
+      </c>
+      <c r="U22" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="V22" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-0.72065661314599061</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.76443959361658353</v>
+      </c>
+      <c r="F23" s="5">
+        <v>5</v>
+      </c>
+      <c r="I23" s="5">
+        <v>2.8</v>
+      </c>
+      <c r="S23">
+        <v>17</v>
+      </c>
+      <c r="T23" s="5">
+        <v>5.4</v>
+      </c>
+      <c r="U23" s="5">
+        <v>5</v>
+      </c>
+      <c r="V23" s="5">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.89688333366721917</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.81510941287874572</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="I24" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="S24">
+        <v>18</v>
+      </c>
+      <c r="T24" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="U24" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="V24" s="5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" s="5">
+        <v>7.01</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.64999565757467659</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.74215248670880263</v>
+      </c>
+      <c r="F25" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="I25" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="S25">
+        <v>19</v>
+      </c>
+      <c r="T25" s="5">
+        <v>7.01</v>
+      </c>
+      <c r="U25" s="5">
+        <v>5.9</v>
+      </c>
+      <c r="V25" s="5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>-3.958716185621803E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.51578886861437412</v>
+      </c>
+      <c r="F26" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I26" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="S26">
+        <v>20</v>
+      </c>
+      <c r="T26" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="U26" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V26" s="5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="B27" s="1"/>
+      <c r="F27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <f>AVERAGE(B7:B26)</f>
+        <v>6.2465000000000002</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="5">
+        <f>AVERAGE(F7:F26)</f>
+        <v>5.05</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="5">
+        <f>AVERAGE(I7:I26)</f>
+        <v>3.2400000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="B29" s="1"/>
+      <c r="F29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="F30" s="7">
+        <f>F28/B28 - 1</f>
+        <v>-0.19154726646922282</v>
+      </c>
+      <c r="I30" s="7">
+        <f xml:space="preserve"> I28/F28 - 1</f>
+        <v>-0.35841584158415829</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <f>STDEV((B7:B26))</f>
+        <v>1.1746232318671803</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -819,8 +2663,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>